--- a/poc-1-manipular-pdf-shopee/entradas/5 etiqueta.xlsx
+++ b/poc-1-manipular-pdf-shopee/entradas/5 etiqueta.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5153174F-3C10-457F-A118-685C07EB0BA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38C490C3-CB5A-4CCA-A4BB-2C7D517CC3C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1425" yWindow="1425" windowWidth="43200" windowHeight="11235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -60,19 +60,6 @@
   </si>
   <si>
     <t xml:space="preserve">[1] Product Name:Tênis Bota conforto basquete esport numeração especial 44 ao 48; Variation Name:Vermelha,45; Price: R$ 61.98; Quantity: 1; SKU Reference No.: BotaAtivus; Parent SKU Reference No.: BotaAtivus; 
-[2] Product Name:Tênis Bota conforto basquete esport numeração especial 44 ao 48; Variation Name:Branca,45; Price: R$ 61.98; Quantity: 1; SKU Reference No.: BotaAtivus; Parent SKU Reference No.: BotaAtivus;
-[3] Product Name:Tênis Bota conforto basquete esport numeração especial 44 ao 48; Variation Name:Branca,45; Price: R$ 61.98; Quantity: 1; SKU Reference No.: BotaAtivus; Parent SKU Reference No.: BotaAtivus; 
-[4] Product Name:Tênis Bota conforto basquete esport numeração especial 44 ao 48; Variation Name:Branca,45; Price: R$ 61.98; Quantity: 1; SKU Reference No.: BotaAtivus; Parent SKU Reference No.: BotaAtivus; 
-[5] Product Name:Tênis Bota conforto basquete esport numeração especial 44 ao 48; Variation Name:Branca,45; Price: R$ 61.98; Quantity: 1; SKU Reference No.: BotaAtivus; Parent SKU Reference No.: BotaAtivus; 
-[6] Product Name:Tênis Bota conforto basquete esport numeração especial 44 ao 48; Variation Name:Branca,45; Price: R$ 61.98; Quantity: 1; SKU Reference No.: BotaAtivus; Parent SKU Reference No.: BotaAtivus;  
-[7] Product Name:Tênis Bota conforto basquete esport numeração especial 44 ao 48; Variation Name:Branca,45; Price: R$ 61.98; Quantity: 1; SKU Reference No.: BotaAtivus; Parent SKU Reference No.: BotaAtivus; 
-[8] Product Name:Tênis Bota conforto basquete esport numeração especial 44 ao 48; Variation Name:Branca,45; Price: R$ 61.98; Quantity: 1; SKU Reference No.: BotaAtivus; Parent SKU Reference No.: BotaAtivus; 
-[9] Product Name:Tênis Bota conforto basquete esport numeração especial 44 ao 48; Variation Name:Branca,45; Price: R$ 61.98; Quantity: 1; SKU Reference No.: BotaAtivus; Parent SKU Reference No.: BotaAtivus; 
-[10] Product Name:Tênis Bota conforto basquete esport numeração especial 44 ao 48; Variation Name:Branca,45; Price: R$ 61.98; Quantity: 1; SKU Reference No.: BotaAtivus; Parent SKU Reference No.: BotaAtivus; 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1] Product Name:Tênis Bota conforto basquete esport numeração especial 44 ao 48; Variation Name:Vermelha,45; Price: R$ 61.98; Quantity: 1; SKU Reference No.: BotaAtivus; Parent SKU Reference No.: BotaAtivus; 
 [2] Product Name:Tênis Bota conforto basquete esport numeração especial 44 ao 48; Variation Name:Branca,45; Price: R$ 61.98; Quantity: 1; SKU Reference No.: BotaAtivus; Parent SKU Reference No.: BotaAtivus
 </t>
   </si>
@@ -88,6 +75,19 @@
   </si>
   <si>
     <t xml:space="preserve">[1] Product Name:Tênis Bota conforto basquete esport numeração especial 44 ao 48; Variation Name:Preta,46; Price: R$ 61.98; Quantity: 1; SKU Reference No.: BotaAtivusAAAAAAAAAAA AAAAAAAAA AAAAAAAAAAAAAAAAAAAAAAAAAA; Parent SKU Reference No.: BotaAtivus; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1] Product Name:Tênis Bota conforto basquete esport numeração especial 44 ao 48; Variation Name:Vermelha,45; Price: R$ 61.98; Quantity: 1; SKU Reference No.: BotaAtivus; Parent SKU Reference No.: BotaAtivus; 
+[2] Product Name:Tênis Bota conforto basquete esport numeração especial 44 ao 48; Variation Name:Branca,45; Price: R$ 61.98; Quantity: 1; SKU Reference No.: BotaAtivus; Parent SKU Reference No.: BotaAtivus;
+[3] Product Name:Tênis Bota conforto basquete esport numeração especial 44 ao 48; Variation Name:Branca,45; Price: R$ 61.98; Quantity: 1; SKU Reference No.: BotaAtivus; Parent SKU Reference No.: BotaAtivus; 
+[4] Product Name:Tênis Bota conforto basquete esport numeração especial 44 ao 48; Variation Name:Branca,45; Price: R$ 61.98; Quantity: 1; SKU Reference No.: BotaAtivus; Parent SKU Reference No.: BotaAtivus; 
+[5] Product Name:Tênis Bota conforto basquete esport numeração especial 44 ao 48; Variation Name:Branca,45; Price: R$ 61.98; Quantity: 1; SKU Reference No.: BotaAtivus; Parent SKU Reference No.: BotaAtivus; 
+[6] Product Name:Tênis Bota conforto basquete esport numeração especial 44 ao 48; Variation Name:Branca,45; Price: R$ 61.98; Quantity: 1; SKU Reference No.: BotaAtivus; Parent SKU Reference No.: BotaAtivus;  
+[7] Product Name:Tênis Bota conforto basquete esport numeração especial 44 ao 48; Variation Name:Branca,45; Price: R$ 61.98; Quantity: 4; SKU Reference No.: BotaAtivus; Parent SKU Reference No.: BotaAtivus; 
+[8] Product Name:Tênis Bota conforto basquete esport numeração especial 44 ao 48; Variation Name:Branca,45; Price: R$ 61.98; Quantity: 1; SKU Reference No.: BotaAtivus; Parent SKU Reference No.: BotaAtivus; 
+[9] Product Name:Tênis Bota conforto basquete esport numeração especial 44 ao 48; Variation Name:Branca,45; Price: R$ 61.98; Quantity: 1; SKU Reference No.: BotaAtivus; Parent SKU Reference No.: BotaAtivus; 
+[10] Product Name:Tênis Bota conforto basquete esport numeração especial 44 ao 48; Variation Name:Branca,45; Price: R$ 61.98; Quantity: 1; SKU Reference No.: BotaAtivus; Parent SKU Reference No.: BotaAtivus; 
+</t>
   </si>
 </sst>
 </file>
@@ -471,8 +471,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -506,7 +506,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>7</v>
@@ -523,7 +523,7 @@
         <v>9</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>7</v>
@@ -540,7 +540,7 @@
         <v>11</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>7</v>
@@ -557,7 +557,7 @@
         <v>13</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>7</v>

--- a/poc-1-manipular-pdf-shopee/entradas/5 etiqueta.xlsx
+++ b/poc-1-manipular-pdf-shopee/entradas/5 etiqueta.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38C490C3-CB5A-4CCA-A4BB-2C7D517CC3C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5419306E-6FF2-4CAA-B77B-C3137B569967}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1425" yWindow="1425" windowWidth="43200" windowHeight="11235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="57840" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="orders" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
   <si>
     <t>tracking_number</t>
   </si>
@@ -85,9 +85,8 @@
 [6] Product Name:Tênis Bota conforto basquete esport numeração especial 44 ao 48; Variation Name:Branca,45; Price: R$ 61.98; Quantity: 1; SKU Reference No.: BotaAtivus; Parent SKU Reference No.: BotaAtivus;  
 [7] Product Name:Tênis Bota conforto basquete esport numeração especial 44 ao 48; Variation Name:Branca,45; Price: R$ 61.98; Quantity: 4; SKU Reference No.: BotaAtivus; Parent SKU Reference No.: BotaAtivus; 
 [8] Product Name:Tênis Bota conforto basquete esport numeração especial 44 ao 48; Variation Name:Branca,45; Price: R$ 61.98; Quantity: 1; SKU Reference No.: BotaAtivus; Parent SKU Reference No.: BotaAtivus; 
-[9] Product Name:Tênis Bota conforto basquete esport numeração especial 44 ao 48; Variation Name:Branca,45; Price: R$ 61.98; Quantity: 1; SKU Reference No.: BotaAtivus; Parent SKU Reference No.: BotaAtivus; 
-[10] Product Name:Tênis Bota conforto basquete esport numeração especial 44 ao 48; Variation Name:Branca,45; Price: R$ 61.98; Quantity: 1; SKU Reference No.: BotaAtivus; Parent SKU Reference No.: BotaAtivus; 
-</t>
+[9] Product Name:Tênis Bota conforto basquete esport numeração especial 44 ao 48; Variation Name:Branca,45; Price: R$ 61.98; Quantity: 5; SKU Reference No.: BotaAtivus; Parent SKU Reference No.: BotaAtivus; 
+[10] Product Name:Tênis Bota conforto basquete esport numeração especial 44 ao 48; Variation Name:Branca,45; Price: R$ 61.98; Quantity: 1; SKU Reference No.: BotaAtivus; Parent SKU Reference No.: BotaAtivus; </t>
   </si>
 </sst>
 </file>
@@ -471,8 +470,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -549,7 +548,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="395.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="382.5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>12</v>
       </c>
@@ -559,9 +558,7 @@
       <c r="C5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>7</v>
-      </c>
+      <c r="D5" s="4"/>
       <c r="E5" s="3" t="s">
         <v>7</v>
       </c>
